--- a/Template_Bill1.xlsx
+++ b/Template_Bill1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c#Workspace\Motel-Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c#Workspace\QuanLyChungCu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Phòng</t>
   </si>
@@ -63,19 +63,28 @@
   </si>
   <si>
     <t>Phòng 101</t>
+  </si>
+  <si>
+    <t>Phòng 104</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF474648"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -104,11 +113,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,9 +433,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -510,6 +520,23 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>169000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>70000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
